--- a/StructureDefinition-RS-Observation-fracture-closed.xlsx
+++ b/StructureDefinition-RS-Observation-fracture-closed.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="518">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T06:06:11+00:00</t>
+    <t>2025-10-15T08:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -689,10 +689,230 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>423125000</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Closed fracture of bone (disorder)</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(urn://example.com/ph-core/fhir/StructureDefinition/ph-core-patient)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/RS-Patient)
 </t>
   </si>
   <si>
@@ -746,7 +966,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(urn://example.com/ph-core/fhir/StructureDefinition/ph-core-encounter)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/RS-Encounter)
 </t>
   </si>
   <si>
@@ -865,10 +1085,6 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
     <t>Actual result</t>
   </si>
   <si>
@@ -1150,29 +1366,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1765,7 +1959,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP52"/>
+  <dimension ref="A1:AP63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1802,7 +1996,7 @@
     <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3751,7 +3945,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>216</v>
       </c>
@@ -3764,19 +3958,19 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>217</v>
@@ -3787,12 +3981,8 @@
       <c r="M17" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>83</v>
       </c>
@@ -3840,7 +4030,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3852,22 +4042,22 @@
         <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>83</v>
@@ -3875,14 +4065,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3898,19 +4088,19 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3948,19 +4138,19 @@
         <v>83</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -3972,7 +4162,7 @@
         <v>83</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>83</v>
@@ -3981,38 +4171,38 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>83</v>
@@ -4021,19 +4211,19 @@
         <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4082,13 +4272,13 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>83</v>
@@ -4097,34 +4287,34 @@
         <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>242</v>
+        <v>83</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4134,29 +4324,25 @@
         <v>94</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>83</v>
       </c>
@@ -4204,7 +4390,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4216,22 +4402,22 @@
         <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>83</v>
@@ -4239,21 +4425,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>83</v>
@@ -4262,19 +4448,19 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>258</v>
+        <v>143</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4312,31 +4498,31 @@
         <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>83</v>
@@ -4345,13 +4531,13 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4359,10 +4545,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4373,7 +4559,7 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>83</v>
@@ -4385,24 +4571,26 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>263</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>83</v>
@@ -4444,13 +4632,13 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>83</v>
@@ -4459,19 +4647,19 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4479,10 +4667,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4490,7 +4678,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>94</v>
@@ -4505,20 +4693,18 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>83</v>
       </c>
@@ -4554,17 +4740,19 @@
         <v>83</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4573,7 +4761,7 @@
         <v>94</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>106</v>
@@ -4582,43 +4770,41 @@
         <v>83</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>283</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>83</v>
@@ -4627,19 +4813,17 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4649,7 +4833,7 @@
         <v>83</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>83</v>
+        <v>259</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>83</v>
@@ -4688,7 +4872,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4697,7 +4881,7 @@
         <v>94</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>106</v>
@@ -4706,27 +4890,27 @@
         <v>83</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>283</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4746,22 +4930,20 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4771,7 +4953,7 @@
         <v>83</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>83</v>
@@ -4786,13 +4968,13 @@
         <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>293</v>
+        <v>83</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
@@ -4810,7 +4992,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4819,7 +5001,7 @@
         <v>94</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>106</v>
@@ -4831,10 +5013,10 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>137</v>
+        <v>269</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>83</v>
@@ -4845,21 +5027,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>83</v>
@@ -4868,22 +5050,22 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -4908,13 +5090,13 @@
         <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
@@ -4932,13 +5114,13 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>83</v>
@@ -4950,27 +5132,27 @@
         <v>83</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>304</v>
+        <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>307</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4981,7 +5163,7 @@
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>83</v>
@@ -4990,22 +5172,22 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>309</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5054,13 +5236,13 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>83</v>
@@ -5075,10 +5257,10 @@
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
@@ -5089,10 +5271,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5100,7 +5282,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>94</v>
@@ -5112,21 +5294,23 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
       </c>
@@ -5150,13 +5334,13 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>320</v>
+        <v>83</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5174,7 +5358,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5189,30 +5373,30 @@
         <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>322</v>
+        <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>325</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5223,7 +5407,7 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>83</v>
@@ -5232,23 +5416,21 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>83</v>
       </c>
@@ -5272,13 +5454,13 @@
         <v>83</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>332</v>
+        <v>83</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>83</v>
@@ -5296,13 +5478,13 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>83</v>
@@ -5317,28 +5499,28 @@
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>333</v>
+        <v>212</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>83</v>
+        <v>305</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5348,27 +5530,29 @@
         <v>94</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
       </c>
@@ -5416,7 +5600,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5431,34 +5615,34 @@
         <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>343</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>83</v>
+        <v>316</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5468,27 +5652,29 @@
         <v>94</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
       </c>
@@ -5536,7 +5722,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5551,30 +5737,30 @@
         <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>352</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5585,7 +5771,7 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>83</v>
@@ -5594,23 +5780,21 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
@@ -5658,19 +5842,19 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>359</v>
+        <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>83</v>
@@ -5679,13 +5863,13 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>83</v>
@@ -5693,10 +5877,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5707,7 +5891,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>83</v>
@@ -5716,19 +5900,21 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
       </c>
@@ -5776,34 +5962,34 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>83</v>
@@ -5811,21 +5997,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
@@ -5834,21 +6020,23 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
@@ -5884,92 +6072,92 @@
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>83</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="D35" t="s" s="2">
-        <v>372</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6018,45 +6206,45 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>137</v>
+        <v>353</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>83</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6079,16 +6267,20 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>377</v>
+        <v>192</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
       </c>
@@ -6112,13 +6304,13 @@
         <v>83</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>83</v>
+        <v>362</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>83</v>
+        <v>364</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>83</v>
@@ -6136,7 +6328,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6145,7 +6337,7 @@
         <v>94</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>106</v>
@@ -6157,10 +6349,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>381</v>
+        <v>137</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6171,21 +6363,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>83</v>
+        <v>368</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>83</v>
@@ -6197,16 +6389,20 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>377</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
@@ -6230,13 +6426,13 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>83</v>
+        <v>362</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>83</v>
+        <v>373</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6254,16 +6450,16 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>380</v>
+        <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>106</v>
@@ -6272,27 +6468,27 @@
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>83</v>
+        <v>375</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>83</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6303,7 +6499,7 @@
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>83</v>
@@ -6315,19 +6511,19 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6352,13 +6548,13 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
@@ -6376,13 +6572,13 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>83</v>
@@ -6394,13 +6590,13 @@
         <v>83</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>306</v>
+        <v>386</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6409,12 +6605,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6425,10 +6621,10 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>83</v>
@@ -6440,17 +6636,15 @@
         <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>83</v>
       </c>
@@ -6477,10 +6671,10 @@
         <v>207</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>83</v>
@@ -6498,13 +6692,13 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>83</v>
@@ -6516,27 +6710,27 @@
         <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AN39" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>83</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6559,17 +6753,19 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>404</v>
+        <v>192</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -6594,13 +6790,13 @@
         <v>83</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>83</v>
+        <v>403</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -6618,7 +6814,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6639,10 +6835,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>83</v>
+        <v>404</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6653,10 +6849,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6679,15 +6875,17 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6736,7 +6934,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6754,27 +6952,27 @@
         <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>83</v>
+        <v>411</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>83</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6785,7 +6983,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -6794,19 +6992,19 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6856,13 +7054,13 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>83</v>
@@ -6874,27 +7072,27 @@
         <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>83</v>
+        <v>420</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>83</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6914,21 +7112,23 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
       </c>
@@ -6976,7 +7176,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -6988,7 +7188,7 @@
         <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>106</v>
+        <v>430</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
@@ -6997,10 +7197,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7011,10 +7211,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7025,7 +7225,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -7034,23 +7234,19 @@
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>354</v>
+        <v>217</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>427</v>
+        <v>218</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7098,19 +7294,19 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>426</v>
+        <v>220</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>83</v>
@@ -7119,10 +7315,10 @@
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>431</v>
+        <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>432</v>
+        <v>221</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7133,21 +7329,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
@@ -7159,15 +7355,17 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>140</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7216,19 +7414,19 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>366</v>
+        <v>227</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
@@ -7240,7 +7438,7 @@
         <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>367</v>
+        <v>221</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7251,14 +7449,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>139</v>
+        <v>436</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7271,24 +7469,26 @@
         <v>83</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>141</v>
+        <v>437</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>369</v>
+        <v>438</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
@@ -7336,7 +7536,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>370</v>
+        <v>439</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7360,7 +7560,7 @@
         <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>367</v>
+        <v>137</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7371,46 +7571,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>372</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>140</v>
+        <v>441</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>442</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7458,19 +7654,19 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>83</v>
+        <v>444</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>83</v>
@@ -7479,10 +7675,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>83</v>
+        <v>445</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>137</v>
+        <v>446</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7493,10 +7689,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7504,7 +7700,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>94</v>
@@ -7516,23 +7712,19 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>192</v>
+        <v>441</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7556,13 +7748,13 @@
         <v>83</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
@@ -7580,16 +7772,16 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>83</v>
+        <v>444</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>106</v>
@@ -7598,16 +7790,16 @@
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>440</v>
+        <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>212</v>
+        <v>445</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>213</v>
+        <v>450</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>83</v>
@@ -7615,10 +7807,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7638,22 +7830,22 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>442</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>274</v>
+        <v>453</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>276</v>
+        <v>455</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -7678,13 +7870,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>83</v>
+        <v>456</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>83</v>
+        <v>457</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -7702,7 +7894,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7720,27 +7912,27 @@
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>281</v>
+        <v>459</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>282</v>
+        <v>377</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>283</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7751,7 +7943,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>83</v>
@@ -7766,16 +7958,16 @@
         <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -7800,13 +7992,13 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>292</v>
+        <v>465</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>293</v>
+        <v>466</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -7824,16 +8016,16 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>106</v>
@@ -7842,13 +8034,13 @@
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>83</v>
+        <v>458</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>137</v>
+        <v>459</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -7859,21 +8051,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>83</v>
@@ -7885,19 +8077,17 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>192</v>
+        <v>468</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>298</v>
+        <v>469</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>301</v>
+        <v>471</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -7922,13 +8112,13 @@
         <v>83</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>83</v>
@@ -7946,13 +8136,13 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>83</v>
@@ -7964,27 +8154,27 @@
         <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>304</v>
+        <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>306</v>
+        <v>472</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>307</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7995,7 +8185,7 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>83</v>
@@ -8007,20 +8197,16 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8068,13 +8254,13 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>83</v>
@@ -8089,20 +8275,1352 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>360</v>
+        <v>445</v>
       </c>
       <c r="AN52" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AO52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP52" t="s" s="2">
+      <c r="P61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP52">
+  <autoFilter ref="A1:AP63">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8112,7 +9630,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
